--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义金属材料参数.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义金属材料参数.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="67">
   <si>
     <t>用例编号</t>
   </si>
@@ -777,6 +777,10 @@
   </si>
   <si>
     <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -870,6 +874,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1296,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1909,15 +1914,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="23" max="23" width="13.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1984,11 +1992,14 @@
       <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
         <v>19</v>
@@ -2053,7 +2064,38 @@
       <c r="V2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="7"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2061,7 +2103,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P2 W3:W1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
@@ -2075,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2092,11 +2134,12 @@
     <col min="17" max="17" width="6" style="4" customWidth="1"/>
     <col min="18" max="21" width="6" style="5" customWidth="1"/>
     <col min="22" max="22" width="7.625" style="22" customWidth="1"/>
-    <col min="23" max="23" width="6.625" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="10.875" style="9"/>
+    <col min="23" max="23" width="13.5" style="4" customWidth="1"/>
+    <col min="24" max="24" width="6.625" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2163,11 +2206,14 @@
       <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
         <v>19</v>
@@ -2232,9 +2278,10 @@
       <c r="V2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W2" s="2"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="13"/>
@@ -2257,9 +2304,10 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="21"/>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W3" s="3"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2282,9 +2330,10 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W4" s="3"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2307,9 +2356,10 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W5" s="3"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2332,9 +2382,10 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="21"/>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W6" s="3"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2357,9 +2408,10 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W7" s="3"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2382,9 +2434,10 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W8" s="3"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2407,9 +2460,10 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="21"/>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W9" s="3"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2432,9 +2486,10 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="21"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W10" s="3"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2457,9 +2512,10 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="21"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W11" s="3"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2482,9 +2538,10 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="21"/>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W12" s="3"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2508,8 +2565,9 @@
       <c r="U13" s="5"/>
       <c r="V13" s="22"/>
       <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2533,8 +2591,9 @@
       <c r="U14" s="5"/>
       <c r="V14" s="22"/>
       <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2558,8 +2617,9 @@
       <c r="U15" s="5"/>
       <c r="V15" s="22"/>
       <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2583,8 +2643,9 @@
       <c r="U16" s="5"/>
       <c r="V16" s="22"/>
       <c r="W16" s="4"/>
-    </row>
-    <row r="17" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2608,8 +2669,9 @@
       <c r="U17" s="5"/>
       <c r="V17" s="22"/>
       <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2633,8 +2695,9 @@
       <c r="U18" s="5"/>
       <c r="V18" s="22"/>
       <c r="W18" s="4"/>
-    </row>
-    <row r="19" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2658,6 +2721,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="22"/>
       <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2665,7 +2729,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q12">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q13:Q1048576 P1:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q13:Q1048576 P1:P1048576 W3:W1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1">

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义金属材料参数.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义金属材料参数.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -678,10 +678,6 @@
     <t>Edit7</t>
   </si>
   <si>
-    <t>选择结构单元；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>方式二</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -781,6 +777,10 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元][Button</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1301,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1580,7 +1580,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>26</v>
@@ -1618,16 +1618,16 @@
         <v>39</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1635,37 +1635,37 @@
         <v>10</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1673,37 +1673,37 @@
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1746,154 +1746,154 @@
     </row>
     <row r="7" spans="1:12" s="25" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>60</v>
-      </c>
       <c r="C7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="25" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="25" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="25" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1993,7 +1993,7 @@
         <v>17</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>12</v>
@@ -2029,40 +2029,40 @@
         <v>990</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="24" t="s">
-        <v>50</v>
-      </c>
       <c r="S2" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" s="7">
         <v>1</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="7"/>
@@ -2119,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2207,7 +2207,7 @@
         <v>17</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>12</v>
@@ -2243,40 +2243,40 @@
         <v>990</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="S2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="T2" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="T2" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="U2" s="7">
         <v>1</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="7"/>

--- a/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义金属材料参数.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/材料信息/自动化定义金属材料参数.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -396,7 +396,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="67">
   <si>
     <t>用例编号</t>
   </si>
@@ -569,10 +569,6 @@
   </si>
   <si>
     <t>操作子窗口标题</t>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试结果等待时间</t>
@@ -781,6 +777,10 @@
   </si>
   <si>
     <t>选择结构单元][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1508,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1521,34 +1521,34 @@
     <row r="1" spans="1:12" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16"/>
       <c r="B1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>7</v>
@@ -1559,37 +1559,37 @@
         <v>8</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1597,37 +1597,37 @@
         <v>9</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="I3" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1635,75 +1635,75 @@
         <v>10</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1746,154 +1746,154 @@
     </row>
     <row r="7" spans="1:12" s="25" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>59</v>
-      </c>
       <c r="C7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="25" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="25" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="25" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1936,34 +1936,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>7</v>
@@ -1987,13 +1987,13 @@
         <v>5</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="W1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>12</v>
@@ -2002,10 +2002,10 @@
     <row r="2" spans="1:24" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3">
         <v>990</v>
@@ -2029,40 +2029,40 @@
         <v>990</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="S2" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U2" s="7">
         <v>1</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="7"/>
@@ -2117,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2128,18 +2128,17 @@
     <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="14" width="5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="31.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="5.25" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6" style="4" customWidth="1"/>
-    <col min="18" max="21" width="6" style="5" customWidth="1"/>
-    <col min="22" max="22" width="7.625" style="22" customWidth="1"/>
-    <col min="23" max="23" width="13.5" style="4" customWidth="1"/>
-    <col min="24" max="24" width="6.625" style="4" customWidth="1"/>
-    <col min="25" max="16384" width="10.875" style="9"/>
+    <col min="4" max="4" width="31.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6" style="4" customWidth="1"/>
+    <col min="7" max="10" width="6" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="4" customWidth="1"/>
+    <col min="13" max="23" width="5" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2149,590 +2148,569 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="T1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:23" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3">
         <v>990</v>
       </c>
-      <c r="E2" s="3">
+      <c r="N2" s="3">
         <v>990</v>
       </c>
-      <c r="F2" s="3">
+      <c r="O2" s="3">
         <v>990</v>
       </c>
-      <c r="G2" s="3">
+      <c r="P2" s="3">
         <v>990</v>
       </c>
-      <c r="H2" s="3">
+      <c r="Q2" s="3">
         <v>990</v>
       </c>
-      <c r="I2" s="3">
+      <c r="R2" s="3">
         <v>990</v>
       </c>
-      <c r="J2" s="3">
+      <c r="S2" s="3">
         <v>990</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="7">
-        <v>1</v>
-      </c>
-      <c r="V2" s="21" t="s">
+      <c r="W2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="7"/>
-    </row>
-    <row r="3" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="13"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="2"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="2"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="2"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="2"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="2"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="2"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="2"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F11" s="2"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F12" s="2"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-    </row>
-    <row r="16" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-    </row>
-    <row r="19" spans="1:24" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q13:Q1048576 P1:P1048576 W3:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F1048576 E1:E1048576 L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
